--- a/РАБОЧИЙ СТОЛ/07,10,25 Ост КИ филиалы/дв 07,10,25 бррсч ост ки.xlsx
+++ b/РАБОЧИЙ СТОЛ/07,10,25 Ост КИ филиалы/дв 07,10,25 бррсч ост ки.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\07,10,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\07,10,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A761BEB-4DE5-4245-A706-90755BCC95C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CE321-FCFC-4D0E-8E81-2C0C74B61278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$98</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -678,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -693,7 +685,6 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1539,7 +1530,7 @@
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5">
-        <f>G6*R6</f>
+        <f t="shared" ref="AH6:AH50" si="3">G6*R6</f>
         <v>164.4</v>
       </c>
       <c r="AI6" s="5"/>
@@ -1601,21 +1592,21 @@
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5">
-        <f t="shared" ref="Q7:Q70" si="3">E7/5</f>
+        <f t="shared" ref="Q7:Q70" si="4">E7/5</f>
         <v>3.3555999999999999</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:R50" si="4">14*Q7-P7-O7-F7</f>
+        <f t="shared" ref="R7:R49" si="5">14*Q7-P7-O7-F7</f>
         <v>19.1814</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5">
-        <f t="shared" ref="U7:U70" si="5">(F7+O7+P7+R7)/Q7</f>
+        <f t="shared" ref="U7:U70" si="6">(F7+O7+P7+R7)/Q7</f>
         <v>14</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" ref="V7:V70" si="6">(F7+O7+P7)/Q7</f>
+        <f t="shared" ref="V7:V70" si="7">(F7+O7+P7)/Q7</f>
         <v>8.2837644534509476</v>
       </c>
       <c r="W7" s="5">
@@ -1650,7 +1641,7 @@
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5">
-        <f>G7*R7</f>
+        <f t="shared" si="3"/>
         <v>19.1814</v>
       </c>
       <c r="AI7" s="5"/>
@@ -1714,21 +1705,21 @@
         <v>100</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.458199999999998</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>223.76580000000001</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3822923674424565</v>
       </c>
       <c r="W8" s="5">
@@ -1763,7 +1754,7 @@
       </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5">
-        <f>G8*R8</f>
+        <f t="shared" si="3"/>
         <v>223.76580000000001</v>
       </c>
       <c r="AI8" s="5"/>
@@ -1825,21 +1816,21 @@
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9562000000000002</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.638800000000002</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0503016051528462</v>
       </c>
       <c r="W9" s="5">
@@ -1874,7 +1865,7 @@
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5">
-        <f>G9*R9</f>
+        <f t="shared" si="3"/>
         <v>11.638800000000002</v>
       </c>
       <c r="AI9" s="5"/>
@@ -1932,7 +1923,7 @@
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9807999999999999</v>
       </c>
       <c r="R10" s="4">
@@ -1941,11 +1932,11 @@
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.569935691318328</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.565112540192926</v>
       </c>
       <c r="W10" s="5">
@@ -1980,7 +1971,7 @@
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5">
-        <f>G10*R10</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AI10" s="5"/>
@@ -2042,21 +2033,21 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.833000000000006</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>479.01400000000001</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7172894368267251</v>
       </c>
       <c r="W11" s="5">
@@ -2091,7 +2082,7 @@
       </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5">
-        <f>G11*R11</f>
+        <f t="shared" si="3"/>
         <v>479.01400000000001</v>
       </c>
       <c r="AI11" s="5"/>
@@ -2153,21 +2144,21 @@
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.400000000000034</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.277777777777777</v>
       </c>
       <c r="W12" s="5">
@@ -2202,7 +2193,7 @@
       </c>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5">
-        <f>G12*R12</f>
+        <f t="shared" si="3"/>
         <v>20.100000000000009</v>
       </c>
       <c r="AI12" s="5"/>
@@ -2264,21 +2255,21 @@
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.488800000000001</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.17520000000002</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3085044787302884</v>
       </c>
       <c r="W13" s="5">
@@ -2313,7 +2304,7 @@
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5">
-        <f>G13*R13</f>
+        <f t="shared" si="3"/>
         <v>157.17520000000002</v>
       </c>
       <c r="AI13" s="5"/>
@@ -2375,21 +2366,21 @@
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.799999999999997</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>229.19999999999993</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.218934911242604</v>
       </c>
       <c r="W14" s="5">
@@ -2424,7 +2415,7 @@
       </c>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5">
-        <f>G14*R14</f>
+        <f t="shared" si="3"/>
         <v>57.299999999999983</v>
       </c>
       <c r="AI14" s="5"/>
@@ -2486,20 +2477,20 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.399999999999999</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5">
-        <f t="shared" si="5"/>
-        <v>14.117647058823531</v>
-      </c>
-      <c r="V15" s="5">
         <f t="shared" si="6"/>
         <v>14.117647058823531</v>
       </c>
+      <c r="V15" s="5">
+        <f t="shared" si="7"/>
+        <v>14.117647058823531</v>
+      </c>
       <c r="W15" s="5">
         <v>13.8</v>
       </c>
@@ -2532,7 +2523,7 @@
       </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5">
-        <f>G15*R15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="5"/>
@@ -2594,21 +2585,21 @@
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.694200000000002</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>368.90879999999999</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.359275967227398</v>
       </c>
       <c r="W16" s="5">
@@ -2645,7 +2636,7 @@
         <v>51</v>
       </c>
       <c r="AH16" s="5">
-        <f>G16*R16</f>
+        <f t="shared" si="3"/>
         <v>368.90879999999999</v>
       </c>
       <c r="AI16" s="5"/>
@@ -2707,21 +2698,21 @@
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.4</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>184.59999999999997</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.30246913580247</v>
       </c>
       <c r="W17" s="5">
@@ -2754,11 +2745,11 @@
       <c r="AF17" s="5">
         <v>21.4</v>
       </c>
-      <c r="AG17" s="17" t="s">
+      <c r="AG17" s="16" t="s">
         <v>150</v>
       </c>
       <c r="AH17" s="5">
-        <f>G17*R17</f>
+        <f t="shared" si="3"/>
         <v>22.151999999999994</v>
       </c>
       <c r="AI17" s="5"/>
@@ -2820,21 +2811,21 @@
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.4</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178.60000000000002</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.309917355371901</v>
       </c>
       <c r="W18" s="5">
@@ -2869,7 +2860,7 @@
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5">
-        <f>G18*R18</f>
+        <f t="shared" si="3"/>
         <v>44.650000000000006</v>
       </c>
       <c r="AI18" s="5"/>
@@ -2929,20 +2920,20 @@
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="V19" s="5">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
+      <c r="V19" s="5">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
       <c r="W19" s="5">
         <v>1.2</v>
       </c>
@@ -2977,7 +2968,7 @@
         <v>55</v>
       </c>
       <c r="AH19" s="5">
-        <f>G19*R19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI19" s="5"/>
@@ -3037,20 +3028,20 @@
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1272</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5">
-        <f t="shared" si="5"/>
-        <v>20.445351312987935</v>
-      </c>
-      <c r="V20" s="5">
         <f t="shared" si="6"/>
         <v>20.445351312987935</v>
       </c>
+      <c r="V20" s="5">
+        <f t="shared" si="7"/>
+        <v>20.445351312987935</v>
+      </c>
       <c r="W20" s="5">
         <v>1.3086</v>
       </c>
@@ -3081,11 +3072,11 @@
       <c r="AF20" s="5">
         <v>1.4276</v>
       </c>
-      <c r="AG20" s="16" t="s">
+      <c r="AG20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH20" s="5">
-        <f>G20*R20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI20" s="5"/>
@@ -3149,20 +3140,20 @@
         <v>100</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.8</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5">
-        <f t="shared" si="5"/>
-        <v>16.298076923076923</v>
-      </c>
-      <c r="V21" s="5">
         <f t="shared" si="6"/>
         <v>16.298076923076923</v>
       </c>
+      <c r="V21" s="5">
+        <f t="shared" si="7"/>
+        <v>16.298076923076923</v>
+      </c>
       <c r="W21" s="5">
         <v>29.8</v>
       </c>
@@ -3197,7 +3188,7 @@
         <v>51</v>
       </c>
       <c r="AH21" s="5">
-        <f>G21*R21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI21" s="5"/>
@@ -3257,21 +3248,21 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.975000000000001</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133.78900000000004</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6430830830830825</v>
       </c>
       <c r="W22" s="5">
@@ -3306,7 +3297,7 @@
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5">
-        <f>G22*R22</f>
+        <f t="shared" si="3"/>
         <v>133.78900000000004</v>
       </c>
       <c r="AI22" s="5"/>
@@ -3370,21 +3361,21 @@
         <v>96</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.038461538461538</v>
       </c>
       <c r="W23" s="5">
@@ -3419,7 +3410,7 @@
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5">
-        <f>G23*R23</f>
+        <f t="shared" si="3"/>
         <v>16.940000000000001</v>
       </c>
       <c r="AI23" s="5"/>
@@ -3479,20 +3470,20 @@
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V24" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="W24" s="5">
         <v>-0.6</v>
       </c>
@@ -3527,7 +3518,7 @@
         <v>146</v>
       </c>
       <c r="AH24" s="5">
-        <f>G24*R24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI24" s="5"/>
@@ -3589,20 +3580,20 @@
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5">
-        <f t="shared" si="5"/>
-        <v>35.384615384615387</v>
-      </c>
-      <c r="V25" s="5">
         <f t="shared" si="6"/>
         <v>35.384615384615387</v>
       </c>
+      <c r="V25" s="5">
+        <f t="shared" si="7"/>
+        <v>35.384615384615387</v>
+      </c>
       <c r="W25" s="5">
         <v>11</v>
       </c>
@@ -3635,7 +3626,7 @@
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5">
-        <f>G25*R25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI25" s="5"/>
@@ -3697,20 +3688,20 @@
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.6</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5">
-        <f t="shared" si="5"/>
-        <v>15.441176470588236</v>
-      </c>
-      <c r="V26" s="5">
         <f t="shared" si="6"/>
         <v>15.441176470588236</v>
       </c>
+      <c r="V26" s="5">
+        <f t="shared" si="7"/>
+        <v>15.441176470588236</v>
+      </c>
       <c r="W26" s="5">
         <v>7.6</v>
       </c>
@@ -3743,7 +3734,7 @@
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5">
-        <f>G26*R26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI26" s="5"/>
@@ -3807,21 +3798,21 @@
         <v>100</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.799999999999997</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123.19999999999993</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.24390243902439</v>
       </c>
       <c r="W27" s="5">
@@ -3856,7 +3847,7 @@
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5">
-        <f>G27*R27</f>
+        <f t="shared" si="3"/>
         <v>49.279999999999973</v>
       </c>
       <c r="AI27" s="5"/>
@@ -3918,20 +3909,20 @@
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5">
-        <f t="shared" si="5"/>
-        <v>20.65217391304348</v>
-      </c>
-      <c r="V28" s="5">
         <f t="shared" si="6"/>
         <v>20.65217391304348</v>
       </c>
+      <c r="V28" s="5">
+        <f t="shared" si="7"/>
+        <v>20.65217391304348</v>
+      </c>
       <c r="W28" s="5">
         <v>8.4</v>
       </c>
@@ -3962,11 +3953,11 @@
       <c r="AF28" s="5">
         <v>0</v>
       </c>
-      <c r="AG28" s="16" t="s">
+      <c r="AG28" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH28" s="5">
-        <f>G28*R28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI28" s="5"/>
@@ -4030,21 +4021,21 @@
         <v>100</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.237200000000001</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.376800000000017</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.790207400212255</v>
       </c>
       <c r="W29" s="5">
@@ -4079,7 +4070,7 @@
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5">
-        <f>G29*R29</f>
+        <f t="shared" si="3"/>
         <v>71.376800000000017</v>
       </c>
       <c r="AI29" s="5"/>
@@ -4141,20 +4132,20 @@
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5">
-        <f t="shared" si="5"/>
-        <v>18.627450980392158</v>
-      </c>
-      <c r="V30" s="5">
         <f t="shared" si="6"/>
         <v>18.627450980392158</v>
       </c>
+      <c r="V30" s="5">
+        <f t="shared" si="7"/>
+        <v>18.627450980392158</v>
+      </c>
       <c r="W30" s="5">
         <v>5.6</v>
       </c>
@@ -4189,7 +4180,7 @@
         <v>147</v>
       </c>
       <c r="AH30" s="5">
-        <f>G30*R30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI30" s="5"/>
@@ -4247,20 +4238,20 @@
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5">
-        <f t="shared" si="5"/>
-        <v>23.529411764705884</v>
-      </c>
-      <c r="V31" s="5">
         <f t="shared" si="6"/>
         <v>23.529411764705884</v>
       </c>
+      <c r="V31" s="5">
+        <f t="shared" si="7"/>
+        <v>23.529411764705884</v>
+      </c>
       <c r="W31" s="5">
         <v>13.2</v>
       </c>
@@ -4293,7 +4284,7 @@
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5">
-        <f>G31*R31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI31" s="5"/>
@@ -4357,21 +4348,21 @@
         <v>200</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.2</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153.80000000000007</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.31118881118881</v>
       </c>
       <c r="W32" s="5">
@@ -4406,7 +4397,7 @@
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5">
-        <f>G32*R32</f>
+        <f t="shared" si="3"/>
         <v>61.520000000000032</v>
       </c>
       <c r="AI32" s="5"/>
@@ -4470,20 +4461,20 @@
         <v>100</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5">
-        <f t="shared" si="5"/>
-        <v>24.454545454545453</v>
-      </c>
-      <c r="V33" s="5">
         <f t="shared" si="6"/>
         <v>24.454545454545453</v>
       </c>
+      <c r="V33" s="5">
+        <f t="shared" si="7"/>
+        <v>24.454545454545453</v>
+      </c>
       <c r="W33" s="5">
         <v>41.6</v>
       </c>
@@ -4518,7 +4509,7 @@
         <v>51</v>
       </c>
       <c r="AH33" s="5">
-        <f>G33*R33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI33" s="5"/>
@@ -4580,21 +4571,21 @@
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80.2</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>534.79999999999995</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3316708229426428</v>
       </c>
       <c r="W34" s="5">
@@ -4631,7 +4622,7 @@
         <v>51</v>
       </c>
       <c r="AH34" s="5">
-        <f>G34*R34</f>
+        <f t="shared" si="3"/>
         <v>213.92</v>
       </c>
       <c r="AI34" s="5"/>
@@ -4693,20 +4684,20 @@
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5">
-        <f t="shared" si="5"/>
-        <v>14.166666666666668</v>
-      </c>
-      <c r="V35" s="5">
         <f t="shared" si="6"/>
         <v>14.166666666666668</v>
       </c>
+      <c r="V35" s="5">
+        <f t="shared" si="7"/>
+        <v>14.166666666666668</v>
+      </c>
       <c r="W35" s="5">
         <v>1.8</v>
       </c>
@@ -4739,7 +4730,7 @@
       </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5">
-        <f>G35*R35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI35" s="5"/>
@@ -4799,20 +4790,20 @@
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5">
-        <f t="shared" si="5"/>
-        <v>15.108695652173914</v>
-      </c>
-      <c r="V36" s="5">
         <f t="shared" si="6"/>
         <v>15.108695652173914</v>
       </c>
+      <c r="V36" s="5">
+        <f t="shared" si="7"/>
+        <v>15.108695652173914</v>
+      </c>
       <c r="W36" s="5">
         <v>10.199999999999999</v>
       </c>
@@ -4847,7 +4838,7 @@
         <v>51</v>
       </c>
       <c r="AH36" s="5">
-        <f>G36*R36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI36" s="5"/>
@@ -4909,7 +4900,7 @@
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.8</v>
       </c>
       <c r="R37" s="4">
@@ -4919,11 +4910,11 @@
       <c r="S37" s="4"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9189189189189193</v>
       </c>
       <c r="W37" s="5">
@@ -4958,7 +4949,7 @@
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5">
-        <f>G37*R37</f>
+        <f t="shared" si="3"/>
         <v>47.04</v>
       </c>
       <c r="AI37" s="5"/>
@@ -5010,7 +5001,7 @@
         <v>51</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" ref="L38:L69" si="7">E38-K38</f>
+        <f t="shared" ref="L38:L69" si="8">E38-K38</f>
         <v>-1</v>
       </c>
       <c r="M38" s="5"/>
@@ -5020,21 +5011,21 @@
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
       <c r="W38" s="5">
@@ -5069,7 +5060,7 @@
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5">
-        <f>G38*R38</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="AI38" s="5"/>
@@ -5121,7 +5112,7 @@
         <v>240</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12</v>
       </c>
       <c r="M39" s="5"/>
@@ -5133,21 +5124,21 @@
         <v>150</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.6</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140.39999999999998</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.921052631578947</v>
       </c>
       <c r="W39" s="5">
@@ -5182,7 +5173,7 @@
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5">
-        <f>G39*R39</f>
+        <f t="shared" si="3"/>
         <v>56.16</v>
       </c>
       <c r="AI39" s="5"/>
@@ -5234,7 +5225,7 @@
         <v>109.3</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-7.8499999999999943</v>
       </c>
       <c r="M40" s="5"/>
@@ -5246,20 +5237,20 @@
         <v>100</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.29</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5">
-        <f t="shared" si="5"/>
-        <v>15.903302119270577</v>
-      </c>
-      <c r="V40" s="5">
         <f t="shared" si="6"/>
         <v>15.903302119270577</v>
       </c>
+      <c r="V40" s="5">
+        <f t="shared" si="7"/>
+        <v>15.903302119270577</v>
+      </c>
       <c r="W40" s="5">
         <v>25.679400000000001</v>
       </c>
@@ -5292,7 +5283,7 @@
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5">
-        <f>G40*R40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI40" s="5"/>
@@ -5344,7 +5335,7 @@
         <v>90</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.5619999999999976</v>
       </c>
       <c r="M41" s="5"/>
@@ -5354,21 +5345,21 @@
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.4876</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96.149400000000014</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5018527413710281</v>
       </c>
       <c r="W41" s="5">
@@ -5403,7 +5394,7 @@
       </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5">
-        <f>G41*R41</f>
+        <f t="shared" si="3"/>
         <v>96.149400000000014</v>
       </c>
       <c r="AI41" s="5"/>
@@ -5453,7 +5444,7 @@
         <v>34</v>
       </c>
       <c r="L42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.5000000000002842E-2</v>
       </c>
       <c r="M42" s="5"/>
@@ -5463,21 +5454,21 @@
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8150000000000004</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.677000000000014</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.000000000000004</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.112692589875275</v>
       </c>
       <c r="W42" s="5">
@@ -5512,7 +5503,7 @@
       </c>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5">
-        <f>G42*R42</f>
+        <f t="shared" si="3"/>
         <v>19.677000000000014</v>
       </c>
       <c r="AI42" s="5"/>
@@ -5562,7 +5553,7 @@
         <v>19</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6</v>
       </c>
       <c r="M43" s="5"/>
@@ -5572,20 +5563,20 @@
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5">
-        <f t="shared" si="5"/>
-        <v>191.53846153846152</v>
-      </c>
-      <c r="V43" s="5">
         <f t="shared" si="6"/>
         <v>191.53846153846152</v>
       </c>
+      <c r="V43" s="5">
+        <f t="shared" si="7"/>
+        <v>191.53846153846152</v>
+      </c>
       <c r="W43" s="5">
         <v>5.8</v>
       </c>
@@ -5620,7 +5611,7 @@
         <v>148</v>
       </c>
       <c r="AH43" s="5">
-        <f>G43*R43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI43" s="5"/>
@@ -5672,7 +5663,7 @@
         <v>76</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.4039999999999964</v>
       </c>
       <c r="M44" s="5"/>
@@ -5682,7 +5673,7 @@
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.519200000000001</v>
       </c>
       <c r="R44" s="4">
@@ -5692,11 +5683,11 @@
       <c r="S44" s="4"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7114579315664773</v>
       </c>
       <c r="W44" s="5">
@@ -5733,7 +5724,7 @@
         <v>51</v>
       </c>
       <c r="AH44" s="5">
-        <f>G44*R44</f>
+        <f t="shared" si="3"/>
         <v>134.86220000000003</v>
       </c>
       <c r="AI44" s="5"/>
@@ -5783,7 +5774,7 @@
         <v>27</v>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-21</v>
       </c>
       <c r="M45" s="5"/>
@@ -5793,20 +5784,20 @@
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5">
-        <f t="shared" si="5"/>
-        <v>149.16666666666669</v>
-      </c>
-      <c r="V45" s="5">
         <f t="shared" si="6"/>
         <v>149.16666666666669</v>
       </c>
+      <c r="V45" s="5">
+        <f t="shared" si="7"/>
+        <v>149.16666666666669</v>
+      </c>
       <c r="W45" s="5">
         <v>6.6</v>
       </c>
@@ -5837,11 +5828,11 @@
       <c r="AF45" s="5">
         <v>0</v>
       </c>
-      <c r="AG45" s="16" t="s">
+      <c r="AG45" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH45" s="5">
-        <f>G45*R45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI45" s="5"/>
@@ -5893,7 +5884,7 @@
         <v>207</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M46" s="5"/>
@@ -5905,21 +5896,21 @@
         <v>100</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.2</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230.80000000000007</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.5308056872037916</v>
       </c>
       <c r="W46" s="5">
@@ -5954,7 +5945,7 @@
       </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5">
-        <f>G46*R46</f>
+        <f t="shared" si="3"/>
         <v>69.240000000000023</v>
       </c>
       <c r="AI46" s="5"/>
@@ -6006,7 +5997,7 @@
         <v>22.5</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.3960000000000008</v>
       </c>
       <c r="M47" s="5"/>
@@ -6016,21 +6007,21 @@
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5792000000000002</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.686800000000005</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5170335429769386</v>
       </c>
       <c r="W47" s="5">
@@ -6065,7 +6056,7 @@
       </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5">
-        <f>G47*R47</f>
+        <f t="shared" si="3"/>
         <v>29.686800000000005</v>
       </c>
       <c r="AI47" s="5"/>
@@ -6117,7 +6108,7 @@
         <v>459</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9</v>
       </c>
       <c r="M48" s="5"/>
@@ -6127,21 +6118,21 @@
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>657</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7</v>
       </c>
       <c r="W48" s="5">
@@ -6178,7 +6169,7 @@
         <v>86</v>
       </c>
       <c r="AH48" s="5">
-        <f>G48*R48</f>
+        <f t="shared" si="3"/>
         <v>229.95</v>
       </c>
       <c r="AI48" s="5"/>
@@ -6228,7 +6219,7 @@
         <v>474</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-24</v>
       </c>
       <c r="M49" s="5"/>
@@ -6238,21 +6229,21 @@
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>526</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.155555555555555</v>
       </c>
       <c r="W49" s="5">
@@ -6287,7 +6278,7 @@
       </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5">
-        <f>G49*R49</f>
+        <f t="shared" si="3"/>
         <v>215.66</v>
       </c>
       <c r="AI49" s="5"/>
@@ -6337,7 +6328,7 @@
         <v>60</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-11</v>
       </c>
       <c r="M50" s="5"/>
@@ -6349,20 +6340,20 @@
         <v>60</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5">
-        <f t="shared" si="5"/>
-        <v>18.367346938775508</v>
-      </c>
-      <c r="V50" s="5">
         <f t="shared" si="6"/>
         <v>18.367346938775508</v>
       </c>
+      <c r="V50" s="5">
+        <f t="shared" si="7"/>
+        <v>18.367346938775508</v>
+      </c>
       <c r="W50" s="5">
         <v>20</v>
       </c>
@@ -6395,7 +6386,7 @@
       </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5">
-        <f>G50*R50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI50" s="5"/>
@@ -6443,7 +6434,7 @@
         <v>1.5</v>
       </c>
       <c r="L51" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.5</v>
       </c>
       <c r="M51" s="10"/>
@@ -6453,18 +6444,18 @@
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V51" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W51" s="10">
@@ -6550,7 +6541,7 @@
         <v>170</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
       <c r="M52" s="5"/>
@@ -6560,21 +6551,21 @@
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.6</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" ref="R52:R63" si="8">14*Q52-P52-O52-F52</f>
+        <f t="shared" ref="R52:R63" si="9">14*Q52-P52-O52-F52</f>
         <v>296.40000000000003</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.9079754601226995</v>
       </c>
       <c r="W52" s="5">
@@ -6611,7 +6602,7 @@
         <v>51</v>
       </c>
       <c r="AH52" s="5">
-        <f>G52*R52</f>
+        <f t="shared" ref="AH52:AH63" si="10">G52*R52</f>
         <v>106.70400000000001</v>
       </c>
       <c r="AI52" s="5"/>
@@ -6661,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M53" s="5"/>
@@ -6671,20 +6662,20 @@
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5">
-        <f t="shared" si="5"/>
-        <v>185</v>
-      </c>
-      <c r="V53" s="5">
         <f t="shared" si="6"/>
         <v>185</v>
       </c>
+      <c r="V53" s="5">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
       <c r="W53" s="5">
         <v>3.2</v>
       </c>
@@ -6719,7 +6710,7 @@
         <v>93</v>
       </c>
       <c r="AH53" s="5">
-        <f>G53*R53</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI53" s="5"/>
@@ -6771,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M54" s="5"/>
@@ -6781,7 +6772,7 @@
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
       <c r="R54" s="4">
@@ -6791,11 +6782,11 @@
       <c r="S54" s="4"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="V54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="W54" s="5">
@@ -6832,7 +6823,7 @@
         <v>95</v>
       </c>
       <c r="AH54" s="5">
-        <f>G54*R54</f>
+        <f t="shared" si="10"/>
         <v>9.347999999999999</v>
       </c>
       <c r="AI54" s="5"/>
@@ -6884,7 +6875,7 @@
         <v>30</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13</v>
       </c>
       <c r="M55" s="5"/>
@@ -6894,21 +6885,21 @@
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.941176470588236</v>
       </c>
       <c r="W55" s="5">
@@ -6943,7 +6934,7 @@
       </c>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5">
-        <f>G55*R55</f>
+        <f t="shared" si="10"/>
         <v>1.1880000000000006</v>
       </c>
       <c r="AI55" s="5"/>
@@ -6993,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4</v>
       </c>
       <c r="M56" s="5"/>
@@ -7003,20 +6994,20 @@
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.2</v>
       </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5">
-        <f t="shared" si="5"/>
-        <v>-130</v>
-      </c>
-      <c r="V56" s="5">
         <f t="shared" si="6"/>
         <v>-130</v>
       </c>
+      <c r="V56" s="5">
+        <f t="shared" si="7"/>
+        <v>-130</v>
+      </c>
       <c r="W56" s="5">
         <v>0.2</v>
       </c>
@@ -7047,11 +7038,11 @@
       <c r="AF56" s="5">
         <v>0</v>
       </c>
-      <c r="AG56" s="16" t="s">
+      <c r="AG56" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH56" s="5">
-        <f>G56*R56</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI56" s="5"/>
@@ -7101,7 +7092,7 @@
         <v>143</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6</v>
       </c>
       <c r="M57" s="5"/>
@@ -7111,7 +7102,7 @@
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.4</v>
       </c>
       <c r="R57" s="4">
@@ -7121,11 +7112,11 @@
       <c r="S57" s="4"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="V57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8686131386861318</v>
       </c>
       <c r="W57" s="5">
@@ -7160,7 +7151,7 @@
       </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5">
-        <f>G57*R57</f>
+        <f t="shared" si="10"/>
         <v>82.566000000000003</v>
       </c>
       <c r="AI57" s="5"/>
@@ -7212,7 +7203,7 @@
         <v>19</v>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6</v>
       </c>
       <c r="M58" s="5"/>
@@ -7222,20 +7213,20 @@
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5">
-        <f t="shared" si="5"/>
-        <v>18.46153846153846</v>
-      </c>
-      <c r="V58" s="5">
         <f t="shared" si="6"/>
         <v>18.46153846153846</v>
       </c>
+      <c r="V58" s="5">
+        <f t="shared" si="7"/>
+        <v>18.46153846153846</v>
+      </c>
       <c r="W58" s="5">
         <v>2</v>
       </c>
@@ -7270,7 +7261,7 @@
         <v>51</v>
       </c>
       <c r="AH58" s="5">
-        <f>G58*R58</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI58" s="5"/>
@@ -7320,7 +7311,7 @@
         <v>41</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12</v>
       </c>
       <c r="M59" s="5"/>
@@ -7330,21 +7321,21 @@
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29.200000000000003</v>
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.000000000000002</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9655172413793114</v>
       </c>
       <c r="W59" s="5">
@@ -7379,7 +7370,7 @@
       </c>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5">
-        <f>G59*R59</f>
+        <f t="shared" si="10"/>
         <v>10.512</v>
       </c>
       <c r="AI59" s="5"/>
@@ -7431,7 +7422,7 @@
         <v>195.1</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0889999999999986</v>
       </c>
       <c r="M60" s="5"/>
@@ -7441,21 +7432,21 @@
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.2378</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>157.59719999999999</v>
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.083354457748685</v>
       </c>
       <c r="W60" s="5">
@@ -7490,7 +7481,7 @@
       </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5">
-        <f>G60*R60</f>
+        <f t="shared" si="10"/>
         <v>157.59719999999999</v>
       </c>
       <c r="AI60" s="5"/>
@@ -7540,7 +7531,7 @@
         <v>6</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="M61" s="5"/>
@@ -7550,20 +7541,20 @@
       </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="V61" s="5">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
+      <c r="V61" s="5">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
       <c r="W61" s="5">
         <v>1</v>
       </c>
@@ -7596,7 +7587,7 @@
       </c>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5">
-        <f>G61*R61</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI61" s="5"/>
@@ -7646,7 +7637,7 @@
         <v>27</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
       <c r="M62" s="5"/>
@@ -7656,20 +7647,20 @@
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5">
-        <f t="shared" si="5"/>
-        <v>17.708333333333336</v>
-      </c>
-      <c r="V62" s="5">
         <f t="shared" si="6"/>
         <v>17.708333333333336</v>
       </c>
+      <c r="V62" s="5">
+        <f t="shared" si="7"/>
+        <v>17.708333333333336</v>
+      </c>
       <c r="W62" s="5">
         <v>7</v>
       </c>
@@ -7704,7 +7695,7 @@
         <v>55</v>
       </c>
       <c r="AH62" s="5">
-        <f>G62*R62</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI62" s="5"/>
@@ -7754,7 +7745,7 @@
         <v>29.1</v>
       </c>
       <c r="L63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.000000000002558E-3</v>
       </c>
       <c r="M63" s="5"/>
@@ -7764,21 +7755,21 @@
       </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.819</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.370999999999995</v>
       </c>
       <c r="S63" s="4"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0622100017185083</v>
       </c>
       <c r="W63" s="5">
@@ -7815,7 +7806,7 @@
         <v>105</v>
       </c>
       <c r="AH63" s="5">
-        <f>G63*R63</f>
+        <f t="shared" si="10"/>
         <v>40.370999999999995</v>
       </c>
       <c r="AI63" s="5"/>
@@ -7861,7 +7852,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M64" s="10"/>
@@ -7871,18 +7862,18 @@
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V64" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W64" s="10">
@@ -7968,7 +7959,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.4770000000000003</v>
       </c>
       <c r="M65" s="5"/>
@@ -7978,20 +7969,20 @@
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9045999999999998</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5">
-        <f t="shared" si="5"/>
-        <v>16.594560537645702</v>
-      </c>
-      <c r="V65" s="5">
         <f t="shared" si="6"/>
         <v>16.594560537645702</v>
       </c>
+      <c r="V65" s="5">
+        <f t="shared" si="7"/>
+        <v>16.594560537645702</v>
+      </c>
       <c r="W65" s="5">
         <v>2.927</v>
       </c>
@@ -8024,7 +8015,7 @@
       </c>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5">
-        <f>G65*R65</f>
+        <f t="shared" ref="AH65:AH84" si="11">G65*R65</f>
         <v>0</v>
       </c>
       <c r="AI65" s="5"/>
@@ -8076,7 +8067,7 @@
         <v>666</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-56</v>
       </c>
       <c r="M66" s="5"/>
@@ -8086,21 +8077,21 @@
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R65:R84" si="9">14*Q66-P66-O66-F66</f>
+        <f t="shared" ref="R66:R83" si="12">14*Q66-P66-O66-F66</f>
         <v>543</v>
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5491803278688518</v>
       </c>
       <c r="W66" s="5">
@@ -8135,7 +8126,7 @@
       </c>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5">
-        <f>G66*R66</f>
+        <f t="shared" si="11"/>
         <v>222.63</v>
       </c>
       <c r="AI66" s="5"/>
@@ -8187,7 +8178,7 @@
         <v>116.7</v>
       </c>
       <c r="L67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2439999999999998</v>
       </c>
       <c r="M67" s="5"/>
@@ -8197,21 +8188,21 @@
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.188800000000001</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>99.442199999999985</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8889155311549146</v>
       </c>
       <c r="W67" s="5">
@@ -8246,7 +8237,7 @@
       </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5">
-        <f>G67*R67</f>
+        <f t="shared" si="11"/>
         <v>99.442199999999985</v>
       </c>
       <c r="AI67" s="5"/>
@@ -8298,7 +8289,7 @@
         <v>219</v>
       </c>
       <c r="L68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-8</v>
       </c>
       <c r="M68" s="5"/>
@@ -8308,21 +8299,21 @@
       </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.2</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>284.80000000000007</v>
       </c>
       <c r="S68" s="4"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2511848341232223</v>
       </c>
       <c r="W68" s="5">
@@ -8357,7 +8348,7 @@
       </c>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5">
-        <f>G68*R68</f>
+        <f t="shared" si="11"/>
         <v>99.680000000000021</v>
       </c>
       <c r="AI68" s="5"/>
@@ -8407,7 +8398,7 @@
         <v>6</v>
       </c>
       <c r="L69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29399999999999959</v>
       </c>
       <c r="M69" s="5"/>
@@ -8417,20 +8408,20 @@
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2587999999999999</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5">
-        <f t="shared" si="5"/>
-        <v>19.988083889418498</v>
-      </c>
-      <c r="V69" s="5">
         <f t="shared" si="6"/>
         <v>19.988083889418498</v>
       </c>
+      <c r="V69" s="5">
+        <f t="shared" si="7"/>
+        <v>19.988083889418498</v>
+      </c>
       <c r="W69" s="5">
         <v>0.62359999999999993</v>
       </c>
@@ -8461,11 +8452,11 @@
       <c r="AF69" s="5">
         <v>5.6230000000000002</v>
       </c>
-      <c r="AG69" s="16" t="s">
+      <c r="AG69" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH69" s="5">
-        <f>G69*R69</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI69" s="5"/>
@@ -8517,7 +8508,7 @@
         <v>569</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" ref="L70:L98" si="10">E70-K70</f>
+        <f t="shared" ref="L70:L98" si="13">E70-K70</f>
         <v>-6</v>
       </c>
       <c r="M70" s="5"/>
@@ -8529,21 +8520,21 @@
         <v>400</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.6</v>
       </c>
       <c r="R70" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>574.39999999999986</v>
       </c>
       <c r="S70" s="4"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8987566607460042</v>
       </c>
       <c r="W70" s="5">
@@ -8578,7 +8569,7 @@
       </c>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5">
-        <f>G70*R70</f>
+        <f t="shared" si="11"/>
         <v>229.75999999999996</v>
       </c>
       <c r="AI70" s="5"/>
@@ -8630,7 +8621,7 @@
         <v>732</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="M71" s="5"/>
@@ -8642,21 +8633,21 @@
         <v>100</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" ref="Q71:Q98" si="11">E71/5</f>
+        <f t="shared" ref="Q71:Q98" si="14">E71/5</f>
         <v>142.19999999999999</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1071.7999999999997</v>
       </c>
       <c r="S71" s="4"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5">
-        <f t="shared" ref="U71:U98" si="12">(F71+O71+P71+R71)/Q71</f>
+        <f t="shared" ref="U71:U98" si="15">(F71+O71+P71+R71)/Q71</f>
         <v>14</v>
       </c>
       <c r="V71" s="5">
-        <f t="shared" ref="V71:V98" si="13">(F71+O71+P71)/Q71</f>
+        <f t="shared" ref="V71:V98" si="16">(F71+O71+P71)/Q71</f>
         <v>6.4627285513361468</v>
       </c>
       <c r="W71" s="5">
@@ -8691,7 +8682,7 @@
       </c>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5">
-        <f>G71*R71</f>
+        <f t="shared" si="11"/>
         <v>439.43799999999987</v>
       </c>
       <c r="AI71" s="5"/>
@@ -8743,7 +8734,7 @@
         <v>69</v>
       </c>
       <c r="L72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.9330000000000069</v>
       </c>
       <c r="M72" s="5"/>
@@ -8753,21 +8744,21 @@
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14.186600000000002</v>
       </c>
       <c r="R72" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>116.93340000000003</v>
       </c>
       <c r="S72" s="4"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V72" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.7574753640759582</v>
       </c>
       <c r="W72" s="5">
@@ -8802,7 +8793,7 @@
       </c>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5">
-        <f>G72*R72</f>
+        <f t="shared" si="11"/>
         <v>116.93340000000003</v>
       </c>
       <c r="AI72" s="5"/>
@@ -8852,7 +8843,7 @@
         <v>58</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-15</v>
       </c>
       <c r="M73" s="5"/>
@@ -8862,18 +8853,18 @@
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.6</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="W73" s="5">
@@ -8910,7 +8901,7 @@
         <v>117</v>
       </c>
       <c r="AH73" s="5">
-        <f>G73*R73</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI73" s="5"/>
@@ -8962,7 +8953,7 @@
         <v>23</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="M74" s="5"/>
@@ -8972,18 +8963,18 @@
       </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32.272727272727273</v>
       </c>
       <c r="V74" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.272727272727273</v>
       </c>
       <c r="W74" s="5">
@@ -9018,7 +9009,7 @@
       </c>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5">
-        <f>G74*R74</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI74" s="5"/>
@@ -9070,7 +9061,7 @@
         <v>117</v>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="M75" s="5"/>
@@ -9080,21 +9071,21 @@
       </c>
       <c r="P75" s="5"/>
       <c r="Q75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23.2</v>
       </c>
       <c r="R75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>107.80000000000001</v>
       </c>
       <c r="S75" s="4"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.000000000000002</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.3534482758620694</v>
       </c>
       <c r="W75" s="5">
@@ -9129,7 +9120,7 @@
       </c>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5">
-        <f>G75*R75</f>
+        <f t="shared" si="11"/>
         <v>19.404</v>
       </c>
       <c r="AI75" s="5"/>
@@ -9179,7 +9170,7 @@
         <v>52</v>
       </c>
       <c r="L76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="5"/>
@@ -9189,7 +9180,7 @@
       </c>
       <c r="P76" s="5"/>
       <c r="Q76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10.4</v>
       </c>
       <c r="R76" s="4">
@@ -9199,11 +9190,11 @@
       <c r="S76" s="4"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.0769230769230766</v>
       </c>
       <c r="W76" s="5">
@@ -9238,7 +9229,7 @@
       </c>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5">
-        <f>G76*R76</f>
+        <f t="shared" si="11"/>
         <v>37.120000000000005</v>
       </c>
       <c r="AI76" s="5"/>
@@ -9288,7 +9279,7 @@
         <v>23.19</v>
       </c>
       <c r="L77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.50199999999999889</v>
       </c>
       <c r="M77" s="5"/>
@@ -9298,7 +9289,7 @@
       </c>
       <c r="P77" s="5"/>
       <c r="Q77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.7384000000000004</v>
       </c>
       <c r="R77" s="4">
@@ -9308,11 +9299,11 @@
       <c r="S77" s="4"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.0870335978389329</v>
       </c>
       <c r="W77" s="5">
@@ -9347,7 +9338,7 @@
       </c>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5">
-        <f>G77*R77</f>
+        <f t="shared" si="11"/>
         <v>42.233200000000004</v>
       </c>
       <c r="AI77" s="5"/>
@@ -9367,7 +9358,7 @@
       <c r="AW77" s="5"/>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -9391,7 +9382,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="M78" s="5"/>
@@ -9401,7 +9392,7 @@
       </c>
       <c r="P78" s="5"/>
       <c r="Q78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.6</v>
       </c>
       <c r="R78" s="4">
@@ -9410,11 +9401,11 @@
       <c r="S78" s="4"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-26.666666666666668</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-13.333333333333334</v>
       </c>
       <c r="W78" s="5">
@@ -9449,7 +9440,7 @@
       </c>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5">
-        <f>G78*R78</f>
+        <f t="shared" si="11"/>
         <v>1.76</v>
       </c>
       <c r="AI78" s="5"/>
@@ -9495,7 +9486,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M79" s="5"/>
@@ -9505,18 +9496,18 @@
       </c>
       <c r="P79" s="5"/>
       <c r="Q79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V79" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W79" s="5">
@@ -9553,7 +9544,7 @@
         <v>149</v>
       </c>
       <c r="AH79" s="5">
-        <f>G79*R79</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI79" s="5"/>
@@ -9605,7 +9596,7 @@
         <v>348</v>
       </c>
       <c r="L80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-6</v>
       </c>
       <c r="M80" s="5"/>
@@ -9617,21 +9608,21 @@
         <v>300</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>68.400000000000006</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>238.60000000000014</v>
       </c>
       <c r="S80" s="4"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10.511695906432747</v>
       </c>
       <c r="W80" s="5">
@@ -9666,7 +9657,7 @@
       </c>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5">
-        <f>G80*R80</f>
+        <f t="shared" si="11"/>
         <v>83.510000000000048</v>
       </c>
       <c r="AI80" s="5"/>
@@ -9718,7 +9709,7 @@
         <v>239</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.436000000000007</v>
       </c>
       <c r="M81" s="5"/>
@@ -9730,21 +9721,21 @@
         <v>100</v>
       </c>
       <c r="Q81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>49.487200000000001</v>
       </c>
       <c r="R81" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>346.83479999999997</v>
       </c>
       <c r="S81" s="4"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13.999999999999998</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.9914240450055765</v>
       </c>
       <c r="W81" s="5">
@@ -9779,7 +9770,7 @@
       </c>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5">
-        <f>G81*R81</f>
+        <f t="shared" si="11"/>
         <v>346.83479999999997</v>
       </c>
       <c r="AI81" s="5"/>
@@ -9831,7 +9822,7 @@
         <v>617</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-16</v>
       </c>
       <c r="M82" s="5"/>
@@ -9843,7 +9834,7 @@
         <v>100</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>120.2</v>
       </c>
       <c r="R82" s="4">
@@ -9853,11 +9844,11 @@
       <c r="S82" s="4"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.1514143094841929</v>
       </c>
       <c r="W82" s="5">
@@ -9892,7 +9883,7 @@
       </c>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5">
-        <f>G82*R82</f>
+        <f t="shared" si="11"/>
         <v>372.26000000000005</v>
       </c>
       <c r="AI82" s="5"/>
@@ -9940,7 +9931,7 @@
         <v>43</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M83" s="5"/>
@@ -9950,21 +9941,21 @@
       </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.6</v>
       </c>
       <c r="R83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>30.399999999999991</v>
       </c>
       <c r="S83" s="4"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10.465116279069768</v>
       </c>
       <c r="W83" s="5">
@@ -9999,7 +9990,7 @@
       </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5">
-        <f>G83*R83</f>
+        <f t="shared" si="11"/>
         <v>9.1199999999999974</v>
       </c>
       <c r="AI83" s="5"/>
@@ -10019,7 +10010,7 @@
       <c r="AW83" s="5"/>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -10043,7 +10034,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="M84" s="5"/>
@@ -10053,7 +10044,7 @@
       </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.2</v>
       </c>
       <c r="R84" s="4">
@@ -10062,11 +10053,11 @@
       <c r="S84" s="4"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-150</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-100</v>
       </c>
       <c r="W84" s="5">
@@ -10099,11 +10090,11 @@
       <c r="AF84" s="5">
         <v>0</v>
       </c>
-      <c r="AG84" s="15" t="s">
+      <c r="AG84" s="14" t="s">
         <v>129</v>
       </c>
       <c r="AH84" s="5">
-        <f>G84*R84</f>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="AI84" s="5"/>
@@ -10153,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M85" s="10"/>
@@ -10163,18 +10154,18 @@
       </c>
       <c r="P85" s="10"/>
       <c r="Q85" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
       <c r="T85" s="10"/>
       <c r="U85" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="V85" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="W85" s="10">
@@ -10260,7 +10251,7 @@
         <v>30</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-5</v>
       </c>
       <c r="M86" s="5"/>
@@ -10270,18 +10261,18 @@
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.8</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14.8</v>
       </c>
       <c r="W86" s="5">
@@ -10316,7 +10307,7 @@
       </c>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5">
-        <f>G86*R86</f>
+        <f t="shared" ref="AH86:AH98" si="17">G86*R86</f>
         <v>0</v>
       </c>
       <c r="AI86" s="5"/>
@@ -10368,7 +10359,7 @@
         <v>274</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="M87" s="5"/>
@@ -10380,21 +10371,21 @@
         <v>100</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>54.4</v>
       </c>
       <c r="R87" s="4">
-        <f t="shared" ref="R86:R98" si="14">14*Q87-P87-O87-F87</f>
+        <f t="shared" ref="R87:R90" si="18">14*Q87-P87-O87-F87</f>
         <v>269.60000000000002</v>
       </c>
       <c r="S87" s="4"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.0441176470588243</v>
       </c>
       <c r="W87" s="5">
@@ -10429,7 +10420,7 @@
       </c>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5">
-        <f>G87*R87</f>
+        <f t="shared" si="17"/>
         <v>75.488000000000014</v>
       </c>
       <c r="AI87" s="5"/>
@@ -10481,7 +10472,7 @@
         <v>438</v>
       </c>
       <c r="L88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-51</v>
       </c>
       <c r="M88" s="5"/>
@@ -10493,21 +10484,21 @@
         <v>40</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>77.400000000000006</v>
       </c>
       <c r="R88" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>674.60000000000014</v>
       </c>
       <c r="S88" s="4"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2842377260981905</v>
       </c>
       <c r="W88" s="5">
@@ -10542,7 +10533,7 @@
       </c>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5">
-        <f>G88*R88</f>
+        <f t="shared" si="17"/>
         <v>188.88800000000006</v>
       </c>
       <c r="AI88" s="5"/>
@@ -10594,7 +10585,7 @@
         <v>109</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-17</v>
       </c>
       <c r="M89" s="5"/>
@@ -10604,21 +10595,21 @@
       </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>18.399999999999999</v>
       </c>
       <c r="R89" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.5999999999999659</v>
       </c>
       <c r="S89" s="4"/>
       <c r="T89" s="5"/>
       <c r="U89" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13.478260869565219</v>
       </c>
       <c r="W89" s="5">
@@ -10653,7 +10644,7 @@
       </c>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5">
-        <f>G89*R89</f>
+        <f t="shared" si="17"/>
         <v>2.6879999999999908</v>
       </c>
       <c r="AI89" s="5"/>
@@ -10705,7 +10696,7 @@
         <v>216</v>
       </c>
       <c r="L90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
       <c r="M90" s="5"/>
@@ -10717,21 +10708,21 @@
         <v>200</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>42.4</v>
       </c>
       <c r="R90" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13.600000000000023</v>
       </c>
       <c r="S90" s="4"/>
       <c r="T90" s="5"/>
       <c r="U90" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.000000000000002</v>
       </c>
       <c r="V90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13.679245283018869</v>
       </c>
       <c r="W90" s="5">
@@ -10766,7 +10757,7 @@
       </c>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5">
-        <f>G90*R90</f>
+        <f t="shared" si="17"/>
         <v>3.8080000000000069</v>
       </c>
       <c r="AI90" s="5"/>
@@ -10816,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="L91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M91" s="5"/>
@@ -10826,18 +10817,18 @@
       </c>
       <c r="P91" s="5"/>
       <c r="Q91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="5"/>
       <c r="U91" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>66.666666666666671</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>66.666666666666671</v>
       </c>
       <c r="W91" s="5">
@@ -10874,7 +10865,7 @@
         <v>137</v>
       </c>
       <c r="AH91" s="5">
-        <f>G91*R91</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI91" s="5"/>
@@ -10924,7 +10915,7 @@
         <v>11</v>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-20</v>
       </c>
       <c r="M92" s="5"/>
@@ -10934,18 +10925,18 @@
       </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.8</v>
       </c>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
       <c r="T92" s="5"/>
       <c r="U92" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-18.888888888888889</v>
       </c>
       <c r="V92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-18.888888888888889</v>
       </c>
       <c r="W92" s="5">
@@ -10978,11 +10969,11 @@
       <c r="AF92" s="5">
         <v>5.6</v>
       </c>
-      <c r="AG92" s="16" t="s">
+      <c r="AG92" s="15" t="s">
         <v>57</v>
       </c>
       <c r="AH92" s="5">
-        <f>G92*R92</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI92" s="5"/>
@@ -11032,7 +11023,7 @@
         <v>15</v>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M93" s="5"/>
@@ -11044,18 +11035,18 @@
         <v>70</v>
       </c>
       <c r="Q93" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
       <c r="T93" s="5"/>
       <c r="U93" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>99.333333333333329</v>
       </c>
       <c r="V93" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>99.333333333333329</v>
       </c>
       <c r="W93" s="5">
@@ -11092,7 +11083,7 @@
         <v>55</v>
       </c>
       <c r="AH93" s="5">
-        <f>G93*R93</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI93" s="5"/>
@@ -11112,7 +11103,7 @@
       <c r="AW93" s="5"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -11134,7 +11125,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M94" s="5"/>
@@ -11146,18 +11137,18 @@
         <v>70</v>
       </c>
       <c r="Q94" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
       <c r="T94" s="5"/>
       <c r="U94" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V94" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W94" s="5">
@@ -11194,7 +11185,7 @@
         <v>55</v>
       </c>
       <c r="AH94" s="5">
-        <f>G94*R94</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI94" s="5"/>
@@ -11214,7 +11205,7 @@
       <c r="AW94" s="5"/>
     </row>
     <row r="95" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -11236,7 +11227,7 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M95" s="5"/>
@@ -11248,18 +11239,18 @@
         <v>50</v>
       </c>
       <c r="Q95" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V95" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W95" s="5">
@@ -11296,7 +11287,7 @@
         <v>55</v>
       </c>
       <c r="AH95" s="5">
-        <f>G95*R95</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI95" s="5"/>
@@ -11316,7 +11307,7 @@
       <c r="AW95" s="5"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -11338,7 +11329,7 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M96" s="5"/>
@@ -11350,18 +11341,18 @@
         <v>70</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V96" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W96" s="5">
@@ -11398,7 +11389,7 @@
         <v>55</v>
       </c>
       <c r="AH96" s="5">
-        <f>G96*R96</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI96" s="5"/>
@@ -11418,7 +11409,7 @@
       <c r="AW96" s="5"/>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -11440,7 +11431,7 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M97" s="5"/>
@@ -11452,18 +11443,18 @@
         <v>50</v>
       </c>
       <c r="Q97" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V97" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W97" s="5">
@@ -11500,7 +11491,7 @@
         <v>55</v>
       </c>
       <c r="AH97" s="5">
-        <f>G97*R97</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI97" s="5"/>
@@ -11520,7 +11511,7 @@
       <c r="AW97" s="5"/>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -11542,7 +11533,7 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M98" s="5"/>
@@ -11554,18 +11545,18 @@
         <v>70</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V98" s="5" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W98" s="5">
@@ -11602,7 +11593,7 @@
         <v>55</v>
       </c>
       <c r="AH98" s="5">
-        <f>G98*R98</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI98" s="5"/>
